--- a/멜론_크롤링.xlsx
+++ b/멜론_크롤링.xlsx
@@ -1,128 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="2021년 7월 4일 11시 14분 47초" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -147,6 +22,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -172,6 +50,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -197,6 +78,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -222,6 +106,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -247,6 +134,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -272,6 +162,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -297,6 +190,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -322,6 +218,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -347,6 +246,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -372,6 +274,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -397,6 +302,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -422,6 +330,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -447,6 +358,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -472,6 +386,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -497,6 +414,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -522,6 +442,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -547,6 +470,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -572,6 +498,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -597,6 +526,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -622,6 +554,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -647,6 +582,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -672,6 +610,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -697,6 +638,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -722,6 +666,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -747,6 +694,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -772,6 +722,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -797,6 +750,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -822,6 +778,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -847,6 +806,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -872,6 +834,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -897,6 +862,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -922,6 +890,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -947,6 +918,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -972,6 +946,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -997,6 +974,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1022,6 +1002,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1047,6 +1030,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1072,6 +1058,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1097,6 +1086,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1122,6 +1114,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1147,6 +1142,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1172,6 +1170,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1197,6 +1198,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1222,6 +1226,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1247,6 +1254,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1272,6 +1282,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1297,6 +1310,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1322,6 +1338,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1347,6 +1366,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1372,6 +1394,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1397,6 +1422,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1422,6 +1450,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1447,6 +1478,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1472,6 +1506,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1497,6 +1534,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1522,6 +1562,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1547,6 +1590,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1572,6 +1618,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1597,6 +1646,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1622,6 +1674,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1647,6 +1702,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1672,6 +1730,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1697,6 +1758,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1722,6 +1786,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1747,6 +1814,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1772,6 +1842,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1797,6 +1870,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1822,6 +1898,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1847,6 +1926,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1872,6 +1954,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1897,6 +1982,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1922,6 +2010,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1947,6 +2038,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1972,6 +2066,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1997,6 +2094,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2022,6 +2122,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2047,6 +2150,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2072,6 +2178,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2097,6 +2206,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2122,6 +2234,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2147,6 +2262,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2172,6 +2290,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2197,6 +2318,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2222,6 +2346,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2247,6 +2374,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2272,6 +2402,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2297,6 +2430,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2322,6 +2458,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2347,6 +2486,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2372,6 +2514,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2397,6 +2542,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2422,6 +2570,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2447,6 +2598,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2472,6 +2626,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2497,6 +2654,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2522,6 +2682,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2547,6 +2710,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2572,6 +2738,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2597,6 +2766,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2616,6 +2788,1214 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="6" name="Image 6"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="7" name="Image 7"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="8" name="Image 8"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="9" name="Image 9"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="10" name="Image 10"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="11" name="Image 11"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="12" name="Image 12"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="13" name="Image 13"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="14" name="Image 14"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="15" name="Image 15"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="16" name="Image 16"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="17" name="Image 17"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="18" name="Image 18"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="19" name="Image 19"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="20" name="Image 20"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="21" name="Image 21"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="22" name="Image 22"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="23" name="Image 23"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="24" name="Image 24"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="25" name="Image 25"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="26" name="Image 26"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="27" name="Image 27"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="28" name="Image 28"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="29" name="Image 29"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="30" name="Image 30"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="31" name="Image 31"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="32" name="Image 32"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="33" name="Image 33"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="34" name="Image 34"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="35" name="Image 35"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="36" name="Image 36"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="37" name="Image 37"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="38" name="Image 38"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="39" name="Image 39"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="40" name="Image 40"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="41" name="Image 41"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="42" name="Image 42"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="43" name="Image 43"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="44" name="Image 44"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="45" name="Image 45"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="46" name="Image 46"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="47" name="Image 47"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="48" name="Image 48"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4616,4 +5996,846 @@
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="30"/>
+    <col customWidth="1" max="4" min="4" width="50"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="90" r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>바라만 본다</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MSG워너비(M.O.M)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MSG워너비 1집</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Next Level</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aespa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Next Level</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Butter</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Butter</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>헤픈 우연</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>헤이즈 (Heize)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HAPPEN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>나를 아는 사람</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MSG워너비(정상동기)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MSG워너비 1집</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>치맛바람 (Chi Mat Ba Ram)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>브레이브걸스</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Summer Queen</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>신호등</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>신호등</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dun Dun Dance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>오마이걸 (OH MY GIRL)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dear OHMYGIRL</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Justin Bieber</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Justice</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Permission to Dance</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Butter / Permission to Dance</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Weekend</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>태연 (TAEYEON)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Weekend</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>롤린 (Rollin')</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>브레이브걸스</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rollin'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alcohol-Free</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TWICE (트와이스)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Taste of Love</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dynamite</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dynamite (DayTime Version)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>라일락</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IU 5th Album 'LILAC'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ASAP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>STAYC(스테이씨)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STAYDOM</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>비와 당신</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>슬기로운 의사생활 시즌2 OST Part 1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>안녕 (Hello)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>조이 (JOY)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>안녕 (Hello) - Special Album</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>운전만해 (We Ride)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>브레이브걸스</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>We Ride</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Celebrity</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>IU 5th Album 'LILAC'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>하루만 더</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>빅마마</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>하루만 더</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>상상더하기</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MSG워너비 TOP 8 (별루지, 김정수, 강창모, 정기석, 이동휘, 이상이, 박재정, 원슈타인)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MSG워너비 TOP 8 경연곡</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>사이렌 Remix (Feat. UNEDUCATED KID, Paul Blanco)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>호미들</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>사이렌 Remix</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Timeless</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SG 워너비</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sg Wanna Be+</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>상상더하기</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>라붐 (LABOUM)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fresh Adventure</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>멜로디</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ASH ISLAND</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>멜로디</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>내 손을 잡아</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>최고의 사랑 OST Part.4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>밝게 빛나는 별이 되어 비춰줄게</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>송이한</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>밝게 빛나는 별이 되어 비춰줄게</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Savage Love (Laxed - Siren Beat) (BTS Remix)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Jawsh 685, Jason Derulo, 방탄소년단</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Savage Love (Laxed - Siren Beat) [BTS Remix]</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>비 오는 날 듣기 좋은 노래 (Feat. Colde)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>에픽하이 (EPIK HIGH)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>비 오는 날 듣기 좋은 노래</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>밤하늘의 별을(2020)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>경서</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>밤하늘의 별을(2020)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>작은 것들을 위한 시 (Boy With Luv) (Feat. Halsey)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MAP OF THE SOUL : PERSONA</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>러브(Prod.로코베리)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>로꼬, 이성경</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Love(Prod.Rocoberry)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>라라라</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SG 워너비</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>My Friend</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LOVE DAY (2021) (바른연애 길잡이 X 양요섭, 정은지)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>양요섭, 정은지</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LOVE DAY (2021) (바른연애 길잡이 X 양요섭, 정은지)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>마.피.아. In the morning</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ITZY (있지)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GUESS WHO</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lovesick Girls</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BLACKPINK</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>THE ALBUM</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>잠이 오질 않네요</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>장범준</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>잠이 오질 않네요</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dolphin</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>오마이걸 (OH MY GIRL)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NONSTOP</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>추억은 만남보다 이별에 남아</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>정동하</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>추억은 만남보다 이별에 남아</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>에잇(Prod.&amp;Feat. SUGA of BTS)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>에잇</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Life Goes On</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>취기를 빌려 (취향저격 그녀 X 산들)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>산들</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>취기를 빌려 (취향저격 그녀 X 산들)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AKMU (악동뮤지션)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>항해</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>봄날</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>YOU NEVER WALK ALONE</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Blueming</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Love poem</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IU 5th Album 'LILAC'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="90" r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>아로하</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>조정석</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>슬기로운 의사생활 OST Part 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>